--- a/hourly datasets/cap_gen_year21final.xlsx
+++ b/hourly datasets/cap_gen_year21final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.108761650405588</v>
+        <v>0.09985113967114748</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001923079232443983</v>
+        <v>0.001988119311771011</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003440960557899725</v>
+        <v>0.0006961788887733143</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9342533503175564</v>
+        <v>3.02267071136162</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1536098901096935</v>
+        <v>0.04238283914749392</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.004821196175315129</v>
+        <v>0.0006236289415296763</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008667354640203094</v>
+        <v>0.003352609682012345</v>
       </c>
       <c r="H3" t="n">
-        <v>0.110684729638032</v>
+        <v>0.1018392589829185</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0064310721428153</v>
+        <v>0.00764292616106737</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003930048093731197</v>
+        <v>0.001138267035424474</v>
       </c>
       <c r="D4" t="n">
-        <v>1.727736697553167</v>
+        <v>5.007949710942071</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2064838931010472</v>
+        <v>0.06671868388681791</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.001099501817638193</v>
+        <v>0.005411956363590513</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01377994341751204</v>
+        <v>0.009873895958544225</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1151927225484033</v>
+        <v>0.1074940658322149</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001988400321821273</v>
+        <v>0.01148152592827088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005858683162455539</v>
+        <v>0.006157564342428064</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6466104499956784</v>
+        <v>5.145638055242569</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2220110231137407</v>
+        <v>0.1565063556070586</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01327661696979276</v>
+        <v>-0.0005871322373460973</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009084114946628233</v>
+        <v>0.02355018409388785</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1067732500837668</v>
+        <v>0.1113326655994184</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001060154425468275</v>
+        <v>0.008311162695798961</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003655293929011635</v>
+        <v>0.003030334163803515</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1450644621904215</v>
+        <v>2.638315920976591</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09095065355579031</v>
+        <v>0.06805148546147712</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.003028798649308915</v>
+        <v>0.002371797291782289</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00809424059969987</v>
+        <v>0.01425052809981564</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1098218048310563</v>
+        <v>0.1081623023669464</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.001421622829953188</v>
+        <v>0.01007699447430917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002788746332687472</v>
+        <v>0.003785723053045612</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.08895344754535378</v>
+        <v>1.731141361593052</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09019620747243982</v>
+        <v>0.02019258107131</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009014313528642055</v>
+        <v>0.002657089742776302</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003944935906465409</v>
+        <v>0.01749689920584203</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1073400275756348</v>
+        <v>0.1099281341454566</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001224985711116772</v>
+        <v>0.01269545587341284</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002785817369413467</v>
+        <v>0.004709106767732963</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1419354064318095</v>
+        <v>2.474726883213766</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1361287425403269</v>
+        <v>0.06740143495831745</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.004050458161739985</v>
+        <v>0.003465746443100233</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006316068775990673</v>
+        <v>0.02192516530372545</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1099866361167048</v>
+        <v>0.1125465955445603</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001589042275112487</v>
+        <v>0.02055431128896614</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003017256578168183</v>
+        <v>0.003352561337343317</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5781444160788368</v>
+        <v>4.570048414830572</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1733361904771452</v>
+        <v>0.06775860968567</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.00409885230106663</v>
+        <v>0.01398339178341218</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007004197390552325</v>
+        <v>0.02712523079452011</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1103506926807005</v>
+        <v>0.1204054509601136</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.108761650405588</v>
+        <v>-0.09985113967114748</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001748570048300572</v>
+        <v>0.0005175110880237916</v>
       </c>
       <c r="D10" t="n">
-        <v>-107.8258306855554</v>
+        <v>-232.5598719686458</v>
       </c>
       <c r="E10" t="n">
-        <v>3.241952659571801e-11</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1121888428181013</v>
+        <v>-0.1008654462750203</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1053344579930747</v>
+        <v>-0.09883683306727471</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05117626232458496</v>
+        <v>-0.04531069180190018</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001897996606490692</v>
+        <v>0.0005653253240514305</v>
       </c>
       <c r="D11" t="n">
-        <v>-42.26828354451933</v>
+        <v>-92.90461695220378</v>
       </c>
       <c r="E11" t="n">
-        <v>0.009208950747802938</v>
+        <v>9.653044707023025e-173</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05489633065351761</v>
+        <v>-0.04641871290488364</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04745619399565233</v>
+        <v>-0.04420267069891675</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05758538808100307</v>
+        <v>0.0545404478692473</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04381054935275452</v>
+        <v>-0.03864793659083667</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00184365670238481</v>
+        <v>0.0005423361074239768</v>
       </c>
       <c r="D12" t="n">
-        <v>-38.42521994630011</v>
+        <v>-84.66396795778205</v>
       </c>
       <c r="E12" t="n">
-        <v>0.015883978976685</v>
+        <v>5.897036224024574e-143</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04742411176208931</v>
+        <v>-0.03971089951124009</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04019698694341976</v>
+        <v>-0.03758497367043327</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06495110105283351</v>
+        <v>0.0612032030803108</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03844205242989631</v>
+        <v>-0.03251946179216304</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001790612361396274</v>
+        <v>0.0005336241642723614</v>
       </c>
       <c r="D13" t="n">
-        <v>-35.23815241109404</v>
+        <v>-72.60201894693583</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01768968098306</v>
+        <v>8.967103922923954e-120</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04195164803773367</v>
+        <v>-0.03356534956685701</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03493245682205896</v>
+        <v>-0.03147357401746905</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07031959797569173</v>
+        <v>0.06733167787898445</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03355378139233826</v>
+        <v>-0.02940648473962845</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001754409116962229</v>
+        <v>0.0005213320285015323</v>
       </c>
       <c r="D14" t="n">
-        <v>-32.30071387949005</v>
+        <v>-68.60274714900342</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03313695930753649</v>
+        <v>2.027799064027411e-82</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03699241852864794</v>
+        <v>-0.03042828028660731</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03011514425602857</v>
+        <v>-0.02838468919264956</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07520786901324977</v>
+        <v>0.07044465493151902</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0298570136106469</v>
+        <v>-0.0249560746907821</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001748200618320843</v>
+        <v>0.0005184333361847483</v>
       </c>
       <c r="D15" t="n">
-        <v>-28.80256877617188</v>
+        <v>-59.18894409027136</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03159154945455275</v>
+        <v>5.064401240803025e-16</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03328348211777032</v>
+        <v>-0.02597218888983772</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02643054510352351</v>
+        <v>-0.0239399604917265</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07890463679494114</v>
+        <v>0.07489506498036537</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02701418359358408</v>
+        <v>-0.0214606725974691</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001743360861897364</v>
+        <v>0.0005185489523625461</v>
       </c>
       <c r="D16" t="n">
-        <v>-26.13708275075741</v>
+        <v>-50.17529295780101</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0122614378910962</v>
+        <v>4.446434099163968e-22</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.03043116628025844</v>
+        <v>-0.02247701340847965</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02359720090690973</v>
+        <v>-0.02044433178645855</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08174746681200395</v>
+        <v>0.07839046707367837</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02644207988968622</v>
+        <v>-0.02025757036449352</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001781567634450907</v>
+        <v>0.0005251051937326846</v>
       </c>
       <c r="D17" t="n">
-        <v>-24.76682578108503</v>
+        <v>-46.87005496496995</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02861541370993143</v>
+        <v>1.146486832783053e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02993394818330758</v>
+        <v>-0.02128676121013456</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02295021159606487</v>
+        <v>-0.01922837951885247</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08231957051590182</v>
+        <v>0.07959356930665396</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02134101247538595</v>
+        <v>-0.01750684689290081</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001776769234876726</v>
+        <v>0.0005326896621379968</v>
       </c>
       <c r="D18" t="n">
-        <v>-19.86726379272041</v>
+        <v>-38.76090745324535</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02092350319719027</v>
+        <v>4.840196289195748e-38</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02482347558165254</v>
+        <v>-0.01855090308023548</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01785854936911935</v>
+        <v>-0.01646279070556615</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08742063793020209</v>
+        <v>0.08234429277824666</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01847093285076254</v>
+        <v>-0.01469488404979446</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001775978855648963</v>
+        <v>0.0005281055573162014</v>
       </c>
       <c r="D19" t="n">
-        <v>-16.56443340423184</v>
+        <v>-31.74063442455243</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03350231647942106</v>
+        <v>1.220089556426054e-21</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0219518469554728</v>
+        <v>-0.01572995552612867</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01499001874605228</v>
+        <v>-0.01365981257346024</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0902907175548255</v>
+        <v>0.08515625562135302</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01574222937397062</v>
+        <v>-0.01233485474237278</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001777959833011408</v>
+        <v>0.0005374723199402971</v>
       </c>
       <c r="D20" t="n">
-        <v>-12.84697746233436</v>
+        <v>-25.18818088542831</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04377600153974896</v>
+        <v>1.30186906298213e-11</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01922702609089656</v>
+        <v>-0.01338828481533233</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01225743265704468</v>
+        <v>-0.01128142466941323</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09301942103161742</v>
+        <v>0.0875162849287747</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01141938195079179</v>
+        <v>-0.008427277330165609</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00182832225226173</v>
+        <v>0.0005539678871023622</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.879547311943509</v>
+        <v>-13.8092701281129</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05237953103606238</v>
+        <v>0.07609313148143519</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01500288916923257</v>
+        <v>-0.009513038237785987</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.00783587473235099</v>
+        <v>-0.007341516422545229</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09734226845479625</v>
+        <v>0.09142386234098186</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.008643353549112571</v>
+        <v>-0.004995674372214783</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00184575999057362</v>
+        <v>0.0005552342654435618</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.790644223029125</v>
+        <v>-6.47348131646782</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08540190091963577</v>
+        <v>0.0972330604518937</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01226103852395863</v>
+        <v>-0.006083917371593119</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005025668574266511</v>
+        <v>-0.003907431372836445</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1001182968564755</v>
+        <v>0.0948554652989327</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.006873739086457171</v>
+        <v>-0.003187933691330872</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001869665807090248</v>
+        <v>0.0005674660369115787</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.347773193586454</v>
+        <v>-3.085064831051782</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1073054748060214</v>
+        <v>0.07140547236280539</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0105382791232179</v>
+        <v>-0.004300150597127678</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.003209199049696437</v>
+        <v>-0.002075716785534064</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1018879113191309</v>
+        <v>0.0966632059798166</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.005309875859075244</v>
+        <v>-0.00317619355577809</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001856654608706201</v>
+        <v>0.0005518633124045857</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.725917222974829</v>
+        <v>-4.190990812819697</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1100172169976359</v>
+        <v>0.05474402920984317</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.00894891387347756</v>
+        <v>-0.004257829557654421</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.001670837844672926</v>
+        <v>-0.002094557553901758</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1034517745465128</v>
+        <v>0.09667494611536939</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0030262956740226</v>
+        <v>-0.001524728413542869</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001835926818924255</v>
+        <v>0.0005404897300529371</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.454617165013403</v>
+        <v>-2.328832355709927</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2046669802994863</v>
+        <v>0.2014513136974785</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.006624707430644463</v>
+        <v>-0.002584072541495681</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0005721160825992614</v>
+        <v>-0.0004653842855900577</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1057353547315654</v>
+        <v>0.09832641125760461</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.004600695600711364</v>
+        <v>0.03291407110916019</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0009859581055454202</v>
+        <v>0.0007454848014678429</v>
       </c>
       <c r="D26" t="n">
-        <v>4.969358528015046</v>
+        <v>27.55129756683473</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3602550989231249</v>
+        <v>0.0143074324837879</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00294172706461481</v>
+        <v>0.0314529427460727</v>
       </c>
       <c r="G26" t="n">
-        <v>0.005781244043244591</v>
+        <v>0.03437519947224769</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1133623460062994</v>
+        <v>0.1327652107803077</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year21final.xlsx
+++ b/hourly datasets/cap_gen_year21final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.09985113967114748</v>
+        <v>0.09837042202867428</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001988119311771011</v>
+        <v>0.001277822593376525</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006961788887733143</v>
+        <v>0.0007756570333643085</v>
       </c>
       <c r="D3" t="n">
-        <v>3.02267071136162</v>
+        <v>2.221240790410461</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04238283914749392</v>
+        <v>0.1807279252007462</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006236289415296763</v>
+        <v>-0.0002424437231328349</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003352609682012345</v>
+        <v>0.002798088909885886</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1018392589829185</v>
+        <v>0.09964824462205081</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00764292616106737</v>
+        <v>0.003950237143988924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001138267035424474</v>
+        <v>0.001444295986665446</v>
       </c>
       <c r="D4" t="n">
-        <v>5.007949710942071</v>
+        <v>3.227997580948648</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06671868388681791</v>
+        <v>0.001552271994599783</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005411956363590513</v>
+        <v>0.001119459175365329</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009873895958544225</v>
+        <v>0.00678101511261252</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1074940658322149</v>
+        <v>0.1023206591726632</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01148152592827088</v>
+        <v>0.004451491342966406</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006157564342428064</v>
+        <v>0.006180825833988557</v>
       </c>
       <c r="D5" t="n">
-        <v>5.145638055242569</v>
+        <v>3.103382238728577</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1565063556070586</v>
+        <v>0.1895412201563866</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0005871322373460973</v>
+        <v>-0.00766277696335102</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02355018409388785</v>
+        <v>0.01656575964928383</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1113326655994184</v>
+        <v>0.1028219133716407</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008311162695798961</v>
+        <v>0.003426334444978118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003030334163803515</v>
+        <v>0.002496911217305335</v>
       </c>
       <c r="D6" t="n">
-        <v>2.638315920976591</v>
+        <v>1.801586666096472</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06805148546147712</v>
+        <v>0.02236400644395223</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002371797291782289</v>
+        <v>-0.001467537066959226</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01425052809981564</v>
+        <v>0.008320205956915464</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1081623023669464</v>
+        <v>0.1017967564736524</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01007699447430917</v>
+        <v>0.0009794289781682353</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003785723053045612</v>
+        <v>0.003789420062409111</v>
       </c>
       <c r="D7" t="n">
-        <v>1.731141361593052</v>
+        <v>0.4534002340526647</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02019258107131</v>
+        <v>0.1280639421592503</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002657089742776302</v>
+        <v>-0.006447720252114549</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01749689920584203</v>
+        <v>0.008406578208451018</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1099281341454566</v>
+        <v>0.09934985100684252</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01269545587341284</v>
+        <v>0.0004699182657352262</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004709106767732963</v>
+        <v>0.005252019941149197</v>
       </c>
       <c r="D8" t="n">
-        <v>2.474726883213766</v>
+        <v>0.5554360229626838</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06740143495831745</v>
+        <v>0.1315743236255489</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003465746443100233</v>
+        <v>-0.009823883607145876</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02192516530372545</v>
+        <v>0.01076372013861632</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1125465955445603</v>
+        <v>0.09884034029440951</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02055431128896614</v>
+        <v>0.0005956177165328946</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003352561337343317</v>
+        <v>0.007600761305285682</v>
       </c>
       <c r="D9" t="n">
-        <v>4.570048414830572</v>
+        <v>1.465497903165141</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06775860968567</v>
+        <v>0.153083872322462</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01398339178341218</v>
+        <v>-0.01430164547736644</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02712523079452011</v>
+        <v>0.01549288091043222</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1204054509601136</v>
+        <v>0.09896603974520718</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.09985113967114748</v>
+        <v>-0.09837042202867428</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005175110880237916</v>
+        <v>0.0005361290113274251</v>
       </c>
       <c r="D10" t="n">
-        <v>-232.5598719686458</v>
+        <v>-226.0604492328695</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1008654462750203</v>
+        <v>-0.09942121958525234</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09883683306727471</v>
+        <v>-0.09731962447209618</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04531069180190018</v>
+        <v>-0.04256221049115894</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005653253240514305</v>
+        <v>0.0005824319236259243</v>
       </c>
       <c r="D11" t="n">
-        <v>-92.90461695220378</v>
+        <v>-88.66104186180755</v>
       </c>
       <c r="E11" t="n">
-        <v>9.653044707023025e-173</v>
+        <v>2.484605462903764e-99</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04641871290488364</v>
+        <v>-0.04370376042219629</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04420267069891675</v>
+        <v>-0.04142066056012159</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0545404478692473</v>
+        <v>0.05580821153751535</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03864793659083667</v>
+        <v>-0.03639945431103477</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005423361074239768</v>
+        <v>0.0005611195734038681</v>
       </c>
       <c r="D12" t="n">
-        <v>-84.66396795778205</v>
+        <v>-81.07670877557197</v>
       </c>
       <c r="E12" t="n">
-        <v>5.897036224024574e-143</v>
+        <v>1.56380561696739e-76</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03971089951124009</v>
+        <v>-0.03749923267363465</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03758497367043327</v>
+        <v>-0.03529967594843487</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0612032030803108</v>
+        <v>0.06197096771763952</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03251946179216304</v>
+        <v>-0.02993330097110114</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005336241642723614</v>
+        <v>0.0005529702034022779</v>
       </c>
       <c r="D13" t="n">
-        <v>-72.60201894693583</v>
+        <v>-68.72128295601667</v>
       </c>
       <c r="E13" t="n">
-        <v>8.967103922923954e-120</v>
+        <v>3.371270755657341e-37</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03356534956685701</v>
+        <v>-0.03101710680651993</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03147357401746905</v>
+        <v>-0.02884949513568234</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06733167787898445</v>
+        <v>0.06843712105757314</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02940648473962845</v>
+        <v>-0.02725514697069839</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005213320285015323</v>
+        <v>0.000542236259330747</v>
       </c>
       <c r="D14" t="n">
-        <v>-68.60274714900342</v>
+        <v>-64.37904693171461</v>
       </c>
       <c r="E14" t="n">
-        <v>2.027799064027411e-82</v>
+        <v>1.987845365660662e-69</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03042828028660731</v>
+        <v>-0.02831791458326896</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02838468919264956</v>
+        <v>-0.02619237935812784</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07044465493151902</v>
+        <v>0.07111527505797589</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0249560746907821</v>
+        <v>-0.02269632579724132</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005184333361847483</v>
+        <v>0.0005392745253843907</v>
       </c>
       <c r="D15" t="n">
-        <v>-59.18894409027136</v>
+        <v>-55.18310588149824</v>
       </c>
       <c r="E15" t="n">
-        <v>5.064401240803025e-16</v>
+        <v>1.152721806297351e-30</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02597218888983772</v>
+        <v>-0.02375328851570357</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0239399604917265</v>
+        <v>-0.02163936307877907</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07489506498036537</v>
+        <v>0.07567409623143297</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0214606725974691</v>
+        <v>-0.01903164229454365</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005185489523625461</v>
+        <v>0.0005412208979962928</v>
       </c>
       <c r="D16" t="n">
-        <v>-50.17529295780101</v>
+        <v>-46.32932273484033</v>
       </c>
       <c r="E16" t="n">
-        <v>4.446434099163968e-22</v>
+        <v>4.563496741984544e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02247701340847965</v>
+        <v>-0.02009241987027634</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02044433178645855</v>
+        <v>-0.01797086471881095</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07839046707367837</v>
+        <v>0.07933877973413063</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02025757036449352</v>
+        <v>-0.01787405384678032</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005251051937326846</v>
+        <v>0.0005437225178955512</v>
       </c>
       <c r="D17" t="n">
-        <v>-46.87005496496995</v>
+        <v>-43.47216889081488</v>
       </c>
       <c r="E17" t="n">
-        <v>1.146486832783053e-14</v>
+        <v>2.515341702690597e-28</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02128676121013456</v>
+        <v>-0.01893973447079333</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01922837951885247</v>
+        <v>-0.01680837322276731</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07959356930665396</v>
+        <v>0.08049636818189397</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01750684689290081</v>
+        <v>-0.0158137016715365</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005326896621379968</v>
+        <v>0.0005549805122864558</v>
       </c>
       <c r="D18" t="n">
-        <v>-38.76090745324535</v>
+        <v>-36.45394733220746</v>
       </c>
       <c r="E18" t="n">
-        <v>4.840196289195748e-38</v>
+        <v>6.703249066859703e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01855090308023548</v>
+        <v>-0.01690144768166466</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01646279070556615</v>
+        <v>-0.01472595566140833</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08234429277824666</v>
+        <v>0.08255672035713779</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01469488404979446</v>
+        <v>-0.0128560194997443</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0005281055573162014</v>
+        <v>0.0005508443714749635</v>
       </c>
       <c r="D19" t="n">
-        <v>-31.74063442455243</v>
+        <v>-29.25752529001619</v>
       </c>
       <c r="E19" t="n">
-        <v>1.220089556426054e-21</v>
+        <v>6.781152404033441e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01572995552612867</v>
+        <v>-0.01393565879887275</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01365981257346024</v>
+        <v>-0.01177638020061586</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08515625562135302</v>
+        <v>0.08551440252892999</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01233485474237278</v>
+        <v>-0.01064110352290994</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0005374723199402971</v>
+        <v>0.0005588940526499204</v>
       </c>
       <c r="D20" t="n">
-        <v>-25.18818088542831</v>
+        <v>-23.41912168297054</v>
       </c>
       <c r="E20" t="n">
-        <v>1.30186906298213e-11</v>
+        <v>0.007783413467299174</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01338828481533233</v>
+        <v>-0.0117365199990209</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01128142466941323</v>
+        <v>-0.009545687046798968</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0875162849287747</v>
+        <v>0.08772931850576435</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.008427277330165609</v>
+        <v>-0.00742089073561413</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005539678871023622</v>
+        <v>0.0005817141490061925</v>
       </c>
       <c r="D21" t="n">
-        <v>-13.8092701281129</v>
+        <v>-12.60138519774682</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07609313148143519</v>
+        <v>0.03499416034633272</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.009513038237785987</v>
+        <v>-0.008561034006617781</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.007341516422545229</v>
+        <v>-0.00628074746461048</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09142386234098186</v>
+        <v>0.09094953129306016</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.004995674372214783</v>
+        <v>-0.004381770391283592</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005552342654435618</v>
+        <v>0.00058876398401752</v>
       </c>
       <c r="D22" t="n">
-        <v>-6.47348131646782</v>
+        <v>-5.765001314712697</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0972330604518937</v>
+        <v>0.05209452335500208</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.006083917371593119</v>
+        <v>-0.005535731227780984</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.003907431372836445</v>
+        <v>-0.0032278095547862</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0948554652989327</v>
+        <v>0.09398865163739069</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.003187933691330872</v>
+        <v>-0.002764784628610066</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005674660369115787</v>
+        <v>0.0005975207937167713</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.085064831051782</v>
+        <v>-2.723476692190694</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07140547236280539</v>
+        <v>0.03289872223799641</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.004300150597127678</v>
+        <v>-0.003935908515693378</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.002075716785534064</v>
+        <v>-0.001593660741526752</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0966632059798166</v>
+        <v>0.09560563740006423</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.00317619355577809</v>
+        <v>-0.002177158491459875</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0005518633124045857</v>
+        <v>0.0005825696899837736</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.190990812819697</v>
+        <v>-3.344968526924146</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05474402920984317</v>
+        <v>0.09856247490488983</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.004257829557654421</v>
+        <v>-0.003318978617371404</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.002094557553901758</v>
+        <v>-0.001035338365548346</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09667494611536939</v>
+        <v>0.09619326353721441</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001524728413542869</v>
+        <v>-0.0004097956734545037</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0005404897300529371</v>
+        <v>0.000571342558931708</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.328832355709927</v>
+        <v>-1.439157028323694</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2014513136974785</v>
+        <v>0.1163433315218243</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.002584072541495681</v>
+        <v>-0.001529610959070163</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0004653842855900577</v>
+        <v>0.0007100196121611562</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09832641125760461</v>
+        <v>0.09796062635521978</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03291407110916019</v>
+        <v>0.003955235409904696</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0007454848014678429</v>
+        <v>0.001161026720469045</v>
       </c>
       <c r="D26" t="n">
-        <v>27.55129756683473</v>
+        <v>9.203831243694097</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0143074324837879</v>
+        <v>3.346761225016608e-08</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0314529427460727</v>
+        <v>0.001679658033943331</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03437519947224769</v>
+        <v>0.006230812785866059</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1327652107803077</v>
+        <v>0.102325657438579</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year21final.xlsx
+++ b/hourly datasets/cap_gen_year21final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,575 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.09837042202867428</v>
+        <v>0.1375905940358296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001277822593376525</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0007756570333643085</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.221240790410461</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1807279252007462</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.0002424437231328349</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.002798088909885886</v>
-      </c>
+        <v>0.1263329010180859</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.09964824462205081</v>
+        <v>0.2639234950539155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003950237143988924</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.001444295986665446</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.227997580948648</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.001552271994599783</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.001119459175365329</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.00678101511261252</v>
-      </c>
+        <v>0.1486953166646476</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1023206591726632</v>
+        <v>0.2862859107004772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004451491342966406</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.006180825833988557</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.103382238728577</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1895412201563866</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.00766277696335102</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.01656575964928383</v>
-      </c>
+        <v>0.04095299557420454</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1028219133716407</v>
+        <v>0.1785435896100341</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003426334444978118</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.002496911217305335</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.801586666096472</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.02236400644395223</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.001467537066959226</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.008320205956915464</v>
-      </c>
+        <v>0.02221333386007943</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.1017967564736524</v>
+        <v>0.159803927895909</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0009794289781682353</v>
+        <v>0.01057681589699729</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003789420062409111</v>
+        <v>0.0009438112253314115</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4534002340526647</v>
+        <v>2.31484863849463</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1280639421592503</v>
+        <v>0.005915598103899236</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.006447720252114549</v>
+        <v>0.008725445207887136</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008406578208451018</v>
+        <v>0.01242818658610759</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09934985100684252</v>
+        <v>0.1481674099328269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004699182657352262</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.005252019941149197</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.5554360229626838</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1315743236255489</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.009823883607145876</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.01076372013861632</v>
-      </c>
+        <v>0.00478775197046705</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0.09884034029440951</v>
+        <v>0.1423783460062966</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005956177165328946</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.007600761305285682</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.465497903165141</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.153083872322462</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.01430164547736644</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.01549288091043222</v>
-      </c>
+        <v>0.00534127194831866</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>0.09896603974520718</v>
+        <v>0.1429318659841483</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.09837042202867428</v>
+        <v>0.004599836973359374</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005361290113274251</v>
+        <v>0.0004560957998752814</v>
       </c>
       <c r="D10" t="n">
-        <v>-226.0604492328695</v>
+        <v>1.334358963588606</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.0007943922973660184</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09942121958525234</v>
+        <v>0.003705215991866287</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09731962447209618</v>
+        <v>0.005494457954852472</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.142190431009189</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04256221049115894</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005824319236259243</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-88.66104186180755</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.484605462903764e-99</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.04370376042219629</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04142066056012159</v>
-      </c>
+        <v>0.02901865242408579</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.05580821153751535</v>
+        <v>0.1666092464599154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03639945431103477</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005611195734038681</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-81.07670877557197</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.56380561696739e-76</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.03749923267363465</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.03529967594843487</v>
-      </c>
+        <v>0.0543493431327512</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.06197096771763952</v>
+        <v>0.1919399371685808</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02993330097110114</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005529702034022779</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-68.72128295601667</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.371270755657341e-37</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.03101710680651993</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.02884949513568234</v>
-      </c>
+        <v>0.07211649155283417</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.06843712105757314</v>
+        <v>0.2097070855886638</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02725514697069839</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.000542236259330747</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-64.37904693171461</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.987845365660662e-69</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.02831791458326896</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.02619237935812784</v>
-      </c>
+        <v>0.08285828993534732</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.07111527505797589</v>
+        <v>0.2204488839711769</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02269632579724132</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0005392745253843907</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-55.18310588149824</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.152721806297351e-30</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02375328851570357</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.02163936307877907</v>
-      </c>
+        <v>0.08803763910307656</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.07567409623143297</v>
+        <v>0.2256282331389062</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01903164229454365</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0005412208979962928</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-46.32932273484033</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4.563496741984544e-07</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.02009241987027634</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.01797086471881095</v>
-      </c>
+        <v>0.09325360499026303</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.07933877973413063</v>
+        <v>0.2308441990260926</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01787405384678032</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0005437225178955512</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-43.47216889081488</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.515341702690597e-28</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.01893973447079333</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.01680837322276731</v>
-      </c>
+        <v>0.09732473734962277</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.08049636818189397</v>
+        <v>0.2349153313854524</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0158137016715365</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0005549805122864558</v>
+        <v>-0.1375905940358296</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>-36.45394733220746</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6.703249066859703e-14</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.01690144768166466</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.01472595566140833</v>
-      </c>
+        <v>-8927968850061.713</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.08255672035713779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0128560194997443</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0005508443714749635</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-29.25752529001619</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6.781152404033441e-06</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01393565879887275</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01177638020061586</v>
-      </c>
+        <v>0.09887747336341926</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.08551440252892999</v>
+        <v>0.2364680673992489</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01064110352290994</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0005588940526499204</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-23.41912168297054</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.007783413467299174</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.0117365199990209</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.009545687046798968</v>
-      </c>
+        <v>0.1011992557311156</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.08772931850576435</v>
+        <v>0.2387898497669452</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.00742089073561413</v>
+        <v>0.1053633866988884</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005817141490061925</v>
+        <v>0.006049804206490489</v>
       </c>
       <c r="D21" t="n">
-        <v>-12.60138519774682</v>
+        <v>-187301050.5048338</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03499416034633272</v>
+        <v>0.03347585469972398</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.008561034006617781</v>
+        <v>0.093472417039768</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.00628074746461048</v>
+        <v>0.1172543563580089</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09094953129306016</v>
+        <v>0.242953980734718</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.004381770391283592</v>
+        <v>0.1087367121856587</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00058876398401752</v>
+        <v>0.006154487346040203</v>
       </c>
       <c r="D22" t="n">
-        <v>-5.765001314712697</v>
+        <v>29.99372591628586</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05209452335500208</v>
+        <v>0.03579720882388502</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.005535731227780984</v>
+        <v>0.09662583286549199</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0032278095547862</v>
+        <v>0.1208475915058251</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09398865163739069</v>
+        <v>0.2463273062214884</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.002764784628610066</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0005975207937167713</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-2.723476692190694</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.03289872223799641</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.003935908515693378</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.001593660741526752</v>
-      </c>
+        <v>0.1143710522907444</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.09560563740006423</v>
+        <v>0.251961646326574</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.002177158491459875</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0005825696899837736</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-3.344968526924146</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.09856247490488983</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.003318978617371404</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.001035338365548346</v>
-      </c>
+        <v>0.1177282576576996</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.09619326353721441</v>
+        <v>0.2553188516935292</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0004097956734545037</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.000571342558931708</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-1.439157028323694</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.1163433315218243</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.001529610959070163</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.0007100196121611562</v>
-      </c>
+        <v>0.1203426349911563</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.09796062635521978</v>
+        <v>0.2579332290269859</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1232129826545209</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>427556375936.4813</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0.2608035766903505</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1304794320977664</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.005589877639835952</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1553640728417.608</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.03270457248413563</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1195024328345666</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1414564313609659</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.268070026133596</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1328545910272483</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.005592858387863597</v>
+      </c>
+      <c r="D28" t="n">
+        <v>31.92958075131816</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.05944968682690843</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1218723048625097</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1438368771919858</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2704451850630779</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.003955235409904696</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.001161026720469045</v>
-      </c>
-      <c r="D26" t="n">
-        <v>9.203831243694097</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3.346761225016608e-08</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.001679658033943331</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.006230812785866059</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.102325657438579</v>
+      <c r="B29" t="n">
+        <v>0.005981785420283445</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0002037894411964</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.578102292182184</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.001532790772692626</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.005582143577087344</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.006381427263479619</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.143572379456113</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year21final.xlsx
+++ b/hourly datasets/cap_gen_year21final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1375905940358296</v>
+        <v>0.1113992423925084</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1263329010180859</v>
+        <v>0.1254454475001058</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2639234950539155</v>
+        <v>0.2368446898926141</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1486953166646476</v>
+        <v>0.1490700599357073</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2862859107004772</v>
+        <v>0.2604693023282156</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04095299557420454</v>
+        <v>0.04494109595997438</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -544,7 +544,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1785435896100341</v>
+        <v>0.1563403383524828</v>
       </c>
     </row>
     <row r="6">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02221333386007943</v>
+        <v>0.02783826860116842</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -562,7 +562,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.159803927895909</v>
+        <v>0.1392375109936768</v>
       </c>
     </row>
     <row r="7">
@@ -572,25 +572,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01057681589699729</v>
+        <v>0.01649965745265265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009438112253314115</v>
+        <v>0.001700272677293911</v>
       </c>
       <c r="D7" t="n">
-        <v>2.31484863849463</v>
+        <v>2.879625934947438</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005915598103899236</v>
+        <v>0.008800124277461713</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008725445207887136</v>
+        <v>0.01316146255509465</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01242818658610759</v>
+        <v>0.01983785235021041</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1481674099328269</v>
+        <v>0.127898899845161</v>
       </c>
     </row>
     <row r="8">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00478775197046705</v>
+        <v>0.01093051472373631</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -608,7 +608,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0.1423783460062966</v>
+        <v>0.1223297571162447</v>
       </c>
     </row>
     <row r="9">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00534127194831866</v>
+        <v>0.0121749531417285</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -626,7 +626,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>0.1429318659841483</v>
+        <v>0.1235741955342369</v>
       </c>
     </row>
     <row r="10">
@@ -636,25 +636,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004599836973359374</v>
+        <v>0.01084051814073153</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004560957998752814</v>
+        <v>0.001058575450541831</v>
       </c>
       <c r="D10" t="n">
-        <v>1.334358963588606</v>
+        <v>2.026330108066947</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0007943922973660184</v>
+        <v>0.003584510644042815</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003705215991866287</v>
+        <v>0.008760414580765916</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005494457954852472</v>
+        <v>0.01292062170069702</v>
       </c>
       <c r="H10" t="n">
-        <v>0.142190431009189</v>
+        <v>0.1222397605332399</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02901865242408579</v>
+        <v>0.02965607392827552</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1666092464599154</v>
+        <v>0.1410553163207839</v>
       </c>
     </row>
     <row r="12">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0543493431327512</v>
+        <v>0.05657811113143149</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -690,7 +690,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1919399371685808</v>
+        <v>0.1679773535239399</v>
       </c>
     </row>
     <row r="13">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07211649155283417</v>
+        <v>0.07498615613373034</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -708,7 +708,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2097070855886638</v>
+        <v>0.1863853985262387</v>
       </c>
     </row>
     <row r="14">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08285828993534732</v>
+        <v>0.08489125675829605</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -726,7 +726,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2204488839711769</v>
+        <v>0.1962904991508044</v>
       </c>
     </row>
     <row r="15">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08803763910307656</v>
+        <v>0.09049349916045676</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -744,7 +744,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2256282331389062</v>
+        <v>0.2018927415529652</v>
       </c>
     </row>
     <row r="16">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09325360499026303</v>
+        <v>0.09522265827235654</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -762,7 +762,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2308441990260926</v>
+        <v>0.2066219006648649</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09732473734962277</v>
+        <v>0.09864656041426952</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -780,7 +780,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.2349153313854524</v>
+        <v>0.2100458028067779</v>
       </c>
     </row>
     <row r="18">
@@ -790,19 +790,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1375905940358296</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>-0.1113992423925084</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.00788488177873389</v>
       </c>
       <c r="D18" t="n">
-        <v>-8927968850061.713</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>-23.33541603221571</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.02595550254954082</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1269030552147783</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.09589542957023811</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -814,7 +818,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.09887747336341926</v>
+        <v>0.09987356293835122</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -822,7 +826,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2364680673992489</v>
+        <v>0.2112728053308596</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +836,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1011992557311156</v>
+        <v>0.1021766204415719</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -840,7 +844,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.2387898497669452</v>
+        <v>0.2135758628340803</v>
       </c>
     </row>
     <row r="21">
@@ -850,25 +854,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1053633866988884</v>
+        <v>0.1059495378426912</v>
       </c>
       <c r="C21" t="n">
-        <v>0.006049804206490489</v>
+        <v>0.006285832327742063</v>
       </c>
       <c r="D21" t="n">
-        <v>-187301050.5048338</v>
+        <v>27.93579322505903</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03347585469972398</v>
+        <v>0.03486148792792863</v>
       </c>
       <c r="F21" t="n">
-        <v>0.093472417039768</v>
+        <v>0.09359442412155294</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1172543563580089</v>
+        <v>0.1183046515638294</v>
       </c>
       <c r="H21" t="n">
-        <v>0.242953980734718</v>
+        <v>0.2173487802351996</v>
       </c>
     </row>
     <row r="22">
@@ -878,25 +882,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1087367121856587</v>
+        <v>0.1101130185115464</v>
       </c>
       <c r="C22" t="n">
-        <v>0.006154487346040203</v>
+        <v>0.006323449521945069</v>
       </c>
       <c r="D22" t="n">
-        <v>29.99372591628586</v>
+        <v>29.17957887082748</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03579720882388502</v>
+        <v>0.03421171292818506</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09662583286549199</v>
+        <v>0.09767520931049724</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1208475915058251</v>
+        <v>0.1225508277125959</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2463273062214884</v>
+        <v>0.2215122609040548</v>
       </c>
     </row>
     <row r="23">
@@ -906,7 +910,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1143710522907444</v>
+        <v>0.1158468035174292</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -914,7 +918,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.251961646326574</v>
+        <v>0.2272460459099376</v>
       </c>
     </row>
     <row r="24">
@@ -924,7 +928,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1177282576576996</v>
+        <v>0.1176795602584984</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -932,7 +936,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.2553188516935292</v>
+        <v>0.2290788026510067</v>
       </c>
     </row>
     <row r="25">
@@ -942,15 +946,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1203426349911563</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>0.1204609444041502</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.00647845111161035</v>
+      </c>
+      <c r="D25" t="n">
+        <v>31.01524268844832</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.03271069084937731</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1077210986172392</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1332007901910614</v>
+      </c>
       <c r="H25" t="n">
-        <v>0.2579332290269859</v>
+        <v>0.2318601867966585</v>
       </c>
     </row>
     <row r="26">
@@ -960,21 +974,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1232129826545209</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1229849557856659</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.006104691195107123</v>
       </c>
       <c r="D26" t="n">
-        <v>427556375936.4813</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>31.84669465832229</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.03420637287696614</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1109793702228082</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.134990541348524</v>
+      </c>
       <c r="H26" t="n">
-        <v>0.2608035766903505</v>
+        <v>0.2343841981781743</v>
       </c>
     </row>
     <row r="27">
@@ -984,25 +1002,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1304794320977664</v>
+        <v>0.1293952131760527</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005589877639835952</v>
+        <v>0.005807337085421548</v>
       </c>
       <c r="D27" t="n">
-        <v>1553640728417.608</v>
+        <v>32.10128645339148</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03270457248413563</v>
+        <v>0.03514030670067056</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1195024328345666</v>
+        <v>0.117993919839423</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1414564313609659</v>
+        <v>0.1407965065126831</v>
       </c>
       <c r="H27" t="n">
-        <v>0.268070026133596</v>
+        <v>0.2407944555685611</v>
       </c>
     </row>
     <row r="28">
@@ -1012,25 +1030,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1328545910272483</v>
+        <v>0.1311854579586333</v>
       </c>
       <c r="C28" t="n">
-        <v>0.005592858387863597</v>
+        <v>0.005934526194959007</v>
       </c>
       <c r="D28" t="n">
-        <v>31.92958075131816</v>
+        <v>31.39143688929453</v>
       </c>
       <c r="E28" t="n">
-        <v>0.05944968682690843</v>
+        <v>0.06214760782429639</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1218723048625097</v>
+        <v>0.1195352258102435</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1438368771919858</v>
+        <v>0.142835690107023</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2704451850630779</v>
+        <v>0.2425847003511417</v>
       </c>
     </row>
     <row r="29">
@@ -1040,25 +1058,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.005981785420283445</v>
+        <v>0.01316488972226798</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0002037894411964</v>
+        <v>0.0007613288916396197</v>
       </c>
       <c r="D29" t="n">
-        <v>1.578102292182184</v>
+        <v>2.496460847919775</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001532790772692626</v>
+        <v>0.003316006460320914</v>
       </c>
       <c r="F29" t="n">
-        <v>0.005582143577087344</v>
+        <v>0.01166732989672211</v>
       </c>
       <c r="G29" t="n">
-        <v>0.006381427263479619</v>
+        <v>0.01466244954781373</v>
       </c>
       <c r="H29" t="n">
-        <v>0.143572379456113</v>
+        <v>0.1245641321147764</v>
       </c>
     </row>
   </sheetData>
